--- a/Files/RPAmarket.xlsx
+++ b/Files/RPAmarket.xlsx
@@ -40,28 +40,28 @@
     <x:t>Exenon UI Pharma.</x:t>
   </x:si>
   <x:si>
-    <x:t>77.35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76.25</x:t>
+    <x:t>77.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76.45</x:t>
   </x:si>
   <x:si>
     <x:t>WEX Academy Inc.</x:t>
   </x:si>
   <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44.15</x:t>
+    <x:t>46.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45.25</x:t>
   </x:si>
   <x:si>
     <x:t>Exxon RPA Corp.</x:t>
   </x:si>
   <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78.8</x:t>
+    <x:t>80.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79.45</x:t>
   </x:si>
 </x:sst>
 </file>
